--- a/java vs python.xlsx
+++ b/java vs python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD38D036-94AA-41E9-A844-D34AE2FDE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19088B-8701-4C1A-ABC8-DF0DA459563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B93DC6C-1EB1-46D0-AAC4-57A60978D8D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>load</t>
   </si>
@@ -61,13 +61,58 @@
   </si>
   <si>
     <t>python (in seconds)</t>
+  </si>
+  <si>
+    <t>A5.json file</t>
+  </si>
+  <si>
+    <t>shortestPath (6 to 20)</t>
+  </si>
+  <si>
+    <t>tsp ([1, 3, 6, 10, 30])</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
+    <t>DESKTOP-SCLMDED</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz   2.59 GHz</t>
+  </si>
+  <si>
+    <t>Installed RAM</t>
+  </si>
+  <si>
+    <t>16.0 GB (15.9 GB usable)</t>
+  </si>
+  <si>
+    <t>System type</t>
+  </si>
+  <si>
+    <t>64-bit operating system, x64-based processor</t>
+  </si>
+  <si>
+    <t>Windows 11 Home</t>
+  </si>
+  <si>
+    <t>disc storage type</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>OS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +123,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -246,12 +299,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,6 +314,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,148 +634,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A247768C-066B-44A2-B12E-60B94B8D50D0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.187537431716918</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.12932289999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.56240463256835E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5.6937000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>1.56271457672119E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.24796E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>6.61344289779663</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.1054291000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.35940432548522899</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.1665316</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>0.20333218574523901</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.59136409999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>0.20314288139343201</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.3708342</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>7.8121185302734306E-2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>7.7539399999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>835.94704365730195</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>151.1997523</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>5.2481472492218</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1.4177951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.55935287475585E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.5265100000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.56247615814208E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.7891299999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.7888457672118998E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.7888000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.5589714050292899E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.4319E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.56292915344238E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.10692E-2</v>
       </c>
     </row>
   </sheetData>
